--- a/ExcelTemplates/PinkbikeBuySellAllMountain.xlsx
+++ b/ExcelTemplates/PinkbikeBuySellAllMountain.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Seller</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>element_attribute_value</t>
-  </si>
-  <si>
-    <t>element_content_attribute_name</t>
   </si>
   <si>
     <t>Attribute_Name</t>
@@ -192,8 +189,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -209,15 +208,17 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -547,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -597,7 +598,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -605,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -613,7 +614,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -624,10 +625,10 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -635,7 +636,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -643,7 +644,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -651,7 +652,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -662,10 +663,10 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -673,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -681,7 +682,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -693,22 +694,12 @@
     <row r="21" spans="1:2">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -716,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -724,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -740,10 +731,10 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -751,7 +742,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -759,7 +750,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -772,10 +763,10 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -783,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -794,16 +785,6 @@
     <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTemplates/PinkbikeBuySellAllMountain.xlsx
+++ b/ExcelTemplates/PinkbikeBuySellAllMountain.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>Seller</t>
   </si>
@@ -189,8 +189,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -208,17 +210,19 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -550,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:A41"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -682,14 +686,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" s="1"/>

--- a/ExcelTemplates/PinkbikeBuySellAllMountain.xlsx
+++ b/ExcelTemplates/PinkbikeBuySellAllMountain.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="12240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -76,18 +79,6 @@
     <t>Product_Tags</t>
   </si>
   <si>
-    <t>element_name</t>
-  </si>
-  <si>
-    <t>element_attribute_name</t>
-  </si>
-  <si>
-    <t>element_attribute_value</t>
-  </si>
-  <si>
-    <t>Attribute_Name</t>
-  </si>
-  <si>
     <t>div</t>
   </si>
   <si>
@@ -128,6 +119,18 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>html_tag</t>
+  </si>
+  <si>
+    <t>html_tag_attribute_name</t>
+  </si>
+  <si>
+    <t>html_tag_attribute_value</t>
+  </si>
+  <si>
+    <t>Item_Attribute_Name</t>
   </si>
 </sst>
 </file>
@@ -225,8 +228,41 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -554,17 +590,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -580,7 +616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -588,209 +624,209 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
       <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>9</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTemplates/PinkbikeBuySellAllMountain.xlsx
+++ b/ExcelTemplates/PinkbikeBuySellAllMountain.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Seller</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Item_Attribute_Name</t>
+  </si>
+  <si>
+    <t>content_location</t>
   </si>
 </sst>
 </file>
@@ -588,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -736,6 +739,19 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
@@ -827,6 +843,19 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
